--- a/admin/templates/MORBIDITY-MORTALITY-temp.xlsx
+++ b/admin/templates/MORBIDITY-MORTALITY-temp.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="1980" windowHeight="7995" tabRatio="910" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="105" windowWidth="1980" windowHeight="7995" tabRatio="910" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="morbidity" sheetId="50" r:id="rId1"/>
     <sheet name="rank (morbidity)" sheetId="54" r:id="rId2"/>
     <sheet name="mortality" sheetId="55" r:id="rId3"/>
     <sheet name="rank (mortality)" sheetId="56" r:id="rId4"/>
+    <sheet name="Morbidity Chart" sheetId="57" r:id="rId5"/>
+    <sheet name="Mortality Chart" sheetId="58" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -182,12 +184,15 @@
   <si>
     <t>MORTALITY</t>
   </si>
+  <si>
+    <t>hahahaha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -423,6 +428,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -432,7 +448,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1007,13 +1023,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1230,6 +1276,139 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="35" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1245,127 +1424,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1394,12 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1418,6 +1474,1434 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rank (mortality)'!$B$12:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rank (mortality)'!$B$12:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-48F5-4AF3-B7F0-76BAC2CDB7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rank (mortality)'!$B$12:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rank (mortality)'!$C$12:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-48F5-4AF3-B7F0-76BAC2CDB7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rank (mortality)'!$B$12:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rank (mortality)'!$F$12:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-48F5-4AF3-B7F0-76BAC2CDB7BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="617592288"/>
+        <c:axId val="617595568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="617592288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617595568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617595568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617592288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1555,6 +3039,47 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335359</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCF285D-3009-464A-8EAA-6F50888E9599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1937,46 +3462,46 @@
       <c r="F1" s="15"/>
       <c r="G1" s="23"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="23"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="98" t="s">
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
       <c r="AB1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="95" t="s">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="97"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="104"/>
     </row>
     <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
@@ -1989,45 +3514,45 @@
       <c r="F2" s="16"/>
       <c r="G2" s="24"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S2" s="24"/>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="98" t="s">
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
       <c r="AC2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="99" t="s">
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="101"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="108"/>
     </row>
     <row r="3" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
@@ -2038,44 +3563,44 @@
       <c r="F3" s="16"/>
       <c r="G3" s="24"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="24"/>
-      <c r="T3" s="93" t="s">
+      <c r="T3" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="98" t="s">
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
       <c r="AB3" s="21"/>
       <c r="AC3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="101"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="108"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
@@ -2083,41 +3608,41 @@
       <c r="C4" s="69"/>
       <c r="D4" s="65"/>
       <c r="E4" s="70"/>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="112" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="114"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="84"/>
     </row>
     <row r="5" spans="1:36" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
@@ -2125,119 +3650,119 @@
       <c r="C5" s="72"/>
       <c r="D5" s="73"/>
       <c r="E5" s="74"/>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="117"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="87"/>
     </row>
     <row r="6" spans="1:36" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="83" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="97"/>
+      <c r="H6" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="83" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="83" t="s">
+      <c r="K6" s="97"/>
+      <c r="L6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="83" t="s">
+      <c r="M6" s="97"/>
+      <c r="N6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="83" t="s">
+      <c r="O6" s="97"/>
+      <c r="P6" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="83" t="s">
+      <c r="Q6" s="97"/>
+      <c r="R6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="83" t="s">
+      <c r="S6" s="97"/>
+      <c r="T6" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="84"/>
-      <c r="V6" s="83" t="s">
+      <c r="U6" s="97"/>
+      <c r="V6" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="84"/>
-      <c r="X6" s="83" t="s">
+      <c r="W6" s="97"/>
+      <c r="X6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="83" t="s">
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="83" t="s">
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="83" t="s">
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="83" t="s">
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="78" t="s">
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="79" t="s">
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="124" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +3862,7 @@
       <c r="AI7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="80"/>
+      <c r="AJ7" s="125"/>
     </row>
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
@@ -4173,10 +5698,10 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="86"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="10"/>
       <c r="D47" s="19">
         <f>SUM(D8:D46)</f>
@@ -4312,91 +5837,91 @@
       </c>
     </row>
     <row r="48" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="109"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="110">
+      <c r="D48" s="94">
         <f>SUM(D47:E47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="111"/>
-      <c r="F48" s="110">
+      <c r="E48" s="95"/>
+      <c r="F48" s="94">
         <f>SUM(F47:G47)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="111"/>
-      <c r="H48" s="110">
+      <c r="G48" s="95"/>
+      <c r="H48" s="94">
         <f>SUM(H47:I47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="111"/>
-      <c r="J48" s="110">
+      <c r="I48" s="95"/>
+      <c r="J48" s="94">
         <f>SUM(J47:K47)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="111"/>
-      <c r="L48" s="110">
+      <c r="K48" s="95"/>
+      <c r="L48" s="94">
         <f>SUM(L47:M47)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="111"/>
-      <c r="N48" s="110">
+      <c r="M48" s="95"/>
+      <c r="N48" s="94">
         <f>SUM(N47:O47)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="111"/>
-      <c r="P48" s="110">
+      <c r="O48" s="95"/>
+      <c r="P48" s="94">
         <f>SUM(P47:Q47)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="110">
+      <c r="Q48" s="95"/>
+      <c r="R48" s="94">
         <f>SUM(R47:S47)</f>
         <v>0</v>
       </c>
-      <c r="S48" s="111"/>
-      <c r="T48" s="110">
+      <c r="S48" s="95"/>
+      <c r="T48" s="94">
         <f>SUM(T47:U47)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="111"/>
-      <c r="V48" s="110">
+      <c r="U48" s="95"/>
+      <c r="V48" s="94">
         <f>SUM(V47:W47)</f>
         <v>0</v>
       </c>
-      <c r="W48" s="111"/>
-      <c r="X48" s="110">
+      <c r="W48" s="95"/>
+      <c r="X48" s="94">
         <f>SUM(X47:Y47)</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="111"/>
-      <c r="Z48" s="110">
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="94">
         <f>SUM(Z47:AA47)</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="111"/>
-      <c r="AB48" s="110">
+      <c r="AA48" s="95"/>
+      <c r="AB48" s="94">
         <f>SUM(AB47:AC47)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="111"/>
-      <c r="AD48" s="110">
+      <c r="AC48" s="95"/>
+      <c r="AD48" s="94">
         <f>SUM(AD47:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="111"/>
-      <c r="AF48" s="110">
+      <c r="AE48" s="95"/>
+      <c r="AF48" s="94">
         <f>SUM(AF47:AG47)</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="111"/>
-      <c r="AH48" s="110">
+      <c r="AG48" s="95"/>
+      <c r="AH48" s="94">
         <f>SUM(AH47:AI47)</f>
         <v>0</v>
       </c>
-      <c r="AI48" s="111"/>
+      <c r="AI48" s="95"/>
       <c r="AJ48" s="14">
         <f>AH48</f>
         <v>0</v>
@@ -4406,6 +5931,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="53">
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
     <mergeCell ref="AH4:AJ5"/>
     <mergeCell ref="F4:AG4"/>
     <mergeCell ref="F5:AG5"/>
@@ -4422,43 +5984,6 @@
     <mergeCell ref="T48:U48"/>
     <mergeCell ref="V48:W48"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -4471,8 +5996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4993,39 +6518,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5039,15 +6564,15 @@
       <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
       <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5091,15 +6616,15 @@
       <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:10" s="45" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5109,11 +6634,11 @@
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:10" s="49" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="47" t="s">
         <v>1</v>
       </c>
@@ -5135,11 +6660,11 @@
         <f>morbidity!A8</f>
         <v>0</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="128">
         <f>morbidity!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="134"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="52">
         <f>morbidity!AH8</f>
         <v>0</v>
@@ -5174,11 +6699,11 @@
         <f>morbidity!A9</f>
         <v>0</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="128">
         <f>morbidity!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="134"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="52">
         <f>morbidity!AH9</f>
         <v>0</v>
@@ -5213,11 +6738,11 @@
         <f>morbidity!A10</f>
         <v>0</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="128">
         <f>morbidity!B10</f>
         <v>0</v>
       </c>
-      <c r="C14" s="134"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="52">
         <f>morbidity!AH10</f>
         <v>0</v>
@@ -5252,11 +6777,11 @@
         <f>morbidity!A11</f>
         <v>0</v>
       </c>
-      <c r="B15" s="133">
+      <c r="B15" s="128">
         <f>morbidity!B11</f>
         <v>0</v>
       </c>
-      <c r="C15" s="134"/>
+      <c r="C15" s="129"/>
       <c r="D15" s="52">
         <f>morbidity!AH11</f>
         <v>0</v>
@@ -5291,11 +6816,11 @@
         <f>morbidity!A12</f>
         <v>0</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="128">
         <f>morbidity!B12</f>
         <v>0</v>
       </c>
-      <c r="C16" s="134"/>
+      <c r="C16" s="129"/>
       <c r="D16" s="52">
         <f>morbidity!AH12</f>
         <v>0</v>
@@ -5330,11 +6855,11 @@
         <f>morbidity!A13</f>
         <v>0</v>
       </c>
-      <c r="B17" s="133">
+      <c r="B17" s="128">
         <f>morbidity!B13</f>
         <v>0</v>
       </c>
-      <c r="C17" s="134"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="52">
         <f>morbidity!AH13</f>
         <v>0</v>
@@ -5369,11 +6894,11 @@
         <f>morbidity!A14</f>
         <v>0</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="128">
         <f>morbidity!B14</f>
         <v>0</v>
       </c>
-      <c r="C18" s="134"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="52">
         <f>morbidity!AH14</f>
         <v>0</v>
@@ -5408,11 +6933,11 @@
         <f>morbidity!A15</f>
         <v>0</v>
       </c>
-      <c r="B19" s="133">
+      <c r="B19" s="128">
         <f>morbidity!B15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="134"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="52">
         <f>morbidity!AH15</f>
         <v>0</v>
@@ -5447,11 +6972,11 @@
         <f>morbidity!A16</f>
         <v>0</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="128">
         <f>morbidity!B16</f>
         <v>0</v>
       </c>
-      <c r="C20" s="134"/>
+      <c r="C20" s="129"/>
       <c r="D20" s="52">
         <f>morbidity!AH16</f>
         <v>0</v>
@@ -5486,11 +7011,11 @@
         <f>morbidity!A17</f>
         <v>0</v>
       </c>
-      <c r="B21" s="133">
+      <c r="B21" s="128">
         <f>morbidity!B17</f>
         <v>0</v>
       </c>
-      <c r="C21" s="134"/>
+      <c r="C21" s="129"/>
       <c r="D21" s="52">
         <f>morbidity!AH17</f>
         <v>0</v>
@@ -5525,11 +7050,11 @@
         <f>morbidity!A18</f>
         <v>0</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="128">
         <f>morbidity!B18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="134"/>
+      <c r="C22" s="129"/>
       <c r="D22" s="52">
         <f>morbidity!AH18</f>
         <v>0</v>
@@ -5564,11 +7089,11 @@
         <f>morbidity!A19</f>
         <v>0</v>
       </c>
-      <c r="B23" s="133">
+      <c r="B23" s="128">
         <f>morbidity!B19</f>
         <v>0</v>
       </c>
-      <c r="C23" s="134"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="52">
         <f>morbidity!AH19</f>
         <v>0</v>
@@ -5603,11 +7128,11 @@
         <f>morbidity!A20</f>
         <v>0</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="128">
         <f>morbidity!B20</f>
         <v>0</v>
       </c>
-      <c r="C24" s="134"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="52">
         <f>morbidity!AH20</f>
         <v>0</v>
@@ -5642,11 +7167,11 @@
         <f>morbidity!A21</f>
         <v>0</v>
       </c>
-      <c r="B25" s="133">
+      <c r="B25" s="128">
         <f>morbidity!B21</f>
         <v>0</v>
       </c>
-      <c r="C25" s="134"/>
+      <c r="C25" s="129"/>
       <c r="D25" s="52">
         <f>morbidity!AH21</f>
         <v>0</v>
@@ -5681,11 +7206,11 @@
         <f>morbidity!A22</f>
         <v>0</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="128">
         <f>morbidity!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="134"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="52">
         <f>morbidity!AH22</f>
         <v>0</v>
@@ -5720,11 +7245,11 @@
         <f>morbidity!A23</f>
         <v>0</v>
       </c>
-      <c r="B27" s="133">
+      <c r="B27" s="128">
         <f>morbidity!B23</f>
         <v>0</v>
       </c>
-      <c r="C27" s="134"/>
+      <c r="C27" s="129"/>
       <c r="D27" s="52">
         <f>morbidity!AH23</f>
         <v>0</v>
@@ -5759,11 +7284,11 @@
         <f>morbidity!A24</f>
         <v>0</v>
       </c>
-      <c r="B28" s="133">
+      <c r="B28" s="128">
         <f>morbidity!B24</f>
         <v>0</v>
       </c>
-      <c r="C28" s="134"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="52">
         <f>morbidity!AH24</f>
         <v>0</v>
@@ -5798,11 +7323,11 @@
         <f>morbidity!A25</f>
         <v>0</v>
       </c>
-      <c r="B29" s="133">
+      <c r="B29" s="128">
         <f>morbidity!B25</f>
         <v>0</v>
       </c>
-      <c r="C29" s="134"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="52">
         <f>morbidity!AH25</f>
         <v>0</v>
@@ -5837,11 +7362,11 @@
         <f>morbidity!A26</f>
         <v>0</v>
       </c>
-      <c r="B30" s="133">
+      <c r="B30" s="128">
         <f>morbidity!B26</f>
         <v>0</v>
       </c>
-      <c r="C30" s="134"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="52">
         <f>morbidity!AH26</f>
         <v>0</v>
@@ -5876,11 +7401,11 @@
         <f>morbidity!A27</f>
         <v>0</v>
       </c>
-      <c r="B31" s="133">
+      <c r="B31" s="128">
         <f>morbidity!B27</f>
         <v>0</v>
       </c>
-      <c r="C31" s="134"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="52">
         <f>morbidity!AH27</f>
         <v>0</v>
@@ -5915,11 +7440,11 @@
         <f>morbidity!A28</f>
         <v>0</v>
       </c>
-      <c r="B32" s="133">
+      <c r="B32" s="128">
         <f>morbidity!B28</f>
         <v>0</v>
       </c>
-      <c r="C32" s="134"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="52">
         <f>morbidity!AH28</f>
         <v>0</v>
@@ -5954,11 +7479,11 @@
         <f>morbidity!A29</f>
         <v>0</v>
       </c>
-      <c r="B33" s="133">
+      <c r="B33" s="128">
         <f>morbidity!B29</f>
         <v>0</v>
       </c>
-      <c r="C33" s="134"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="52">
         <f>morbidity!AH29</f>
         <v>0</v>
@@ -5993,11 +7518,11 @@
         <f>morbidity!A30</f>
         <v>0</v>
       </c>
-      <c r="B34" s="133">
+      <c r="B34" s="128">
         <f>morbidity!B30</f>
         <v>0</v>
       </c>
-      <c r="C34" s="134"/>
+      <c r="C34" s="129"/>
       <c r="D34" s="52">
         <f>morbidity!AH30</f>
         <v>0</v>
@@ -6032,11 +7557,11 @@
         <f>morbidity!A31</f>
         <v>0</v>
       </c>
-      <c r="B35" s="133">
+      <c r="B35" s="128">
         <f>morbidity!B31</f>
         <v>0</v>
       </c>
-      <c r="C35" s="134"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="52">
         <f>morbidity!AH31</f>
         <v>0</v>
@@ -6071,11 +7596,11 @@
         <f>morbidity!A32</f>
         <v>0</v>
       </c>
-      <c r="B36" s="133">
+      <c r="B36" s="128">
         <f>morbidity!B32</f>
         <v>0</v>
       </c>
-      <c r="C36" s="134"/>
+      <c r="C36" s="129"/>
       <c r="D36" s="52">
         <f>morbidity!AH32</f>
         <v>0</v>
@@ -6110,11 +7635,11 @@
         <f>morbidity!A33</f>
         <v>0</v>
       </c>
-      <c r="B37" s="133">
+      <c r="B37" s="128">
         <f>morbidity!B33</f>
         <v>0</v>
       </c>
-      <c r="C37" s="134"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="52">
         <f>morbidity!AH33</f>
         <v>0</v>
@@ -6149,11 +7674,11 @@
         <f>morbidity!A34</f>
         <v>0</v>
       </c>
-      <c r="B38" s="133">
+      <c r="B38" s="128">
         <f>morbidity!B34</f>
         <v>0</v>
       </c>
-      <c r="C38" s="134"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="52">
         <f>morbidity!AH34</f>
         <v>0</v>
@@ -6188,11 +7713,11 @@
         <f>morbidity!A35</f>
         <v>0</v>
       </c>
-      <c r="B39" s="133">
+      <c r="B39" s="128">
         <f>morbidity!B35</f>
         <v>0</v>
       </c>
-      <c r="C39" s="134"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="52">
         <f>morbidity!AH35</f>
         <v>0</v>
@@ -6227,11 +7752,11 @@
         <f>morbidity!A36</f>
         <v>0</v>
       </c>
-      <c r="B40" s="133">
+      <c r="B40" s="128">
         <f>morbidity!B36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="134"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="52">
         <f>morbidity!AH36</f>
         <v>0</v>
@@ -6263,10 +7788,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
-      <c r="B41" s="124" t="s">
+      <c r="B41" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="125"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="47">
         <f>SUM(D12:D40)</f>
         <v>0</v>
@@ -6285,26 +7810,6 @@
     <row r="42" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -6321,6 +7826,26 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.65" right="0.65" top="0.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6332,7 +7857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AG2"/>
     </sheetView>
   </sheetViews>
@@ -6387,46 +7912,46 @@
       <c r="F1" s="15"/>
       <c r="G1" s="23"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="23"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="98" t="s">
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
       <c r="AB1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="95" t="s">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="97"/>
+      <c r="AI1" s="103"/>
+      <c r="AJ1" s="104"/>
     </row>
     <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
@@ -6439,45 +7964,45 @@
       <c r="F2" s="16"/>
       <c r="G2" s="24"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S2" s="24"/>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="98" t="s">
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
       <c r="AC2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="99" t="s">
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="101"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="108"/>
     </row>
     <row r="3" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
@@ -6488,44 +8013,44 @@
       <c r="F3" s="16"/>
       <c r="G3" s="24"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="24"/>
-      <c r="T3" s="93" t="s">
+      <c r="T3" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="98" t="s">
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="Z3" s="98"/>
-      <c r="AA3" s="98"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
       <c r="AB3" s="21"/>
       <c r="AC3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="100"/>
-      <c r="AJ3" s="101"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="108"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
@@ -6533,41 +8058,41 @@
       <c r="C4" s="69"/>
       <c r="D4" s="65"/>
       <c r="E4" s="70"/>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="112" t="s">
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="114"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="84"/>
     </row>
     <row r="5" spans="1:36" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
@@ -6575,119 +8100,119 @@
       <c r="C5" s="72"/>
       <c r="D5" s="73"/>
       <c r="E5" s="74"/>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
-      <c r="AA5" s="122"/>
-      <c r="AB5" s="122"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
-      <c r="AF5" s="122"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="116"/>
-      <c r="AJ5" s="117"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="93"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="87"/>
     </row>
     <row r="6" spans="1:36" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="118"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="83" t="s">
+      <c r="E6" s="122"/>
+      <c r="F6" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="83" t="s">
+      <c r="G6" s="97"/>
+      <c r="H6" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="83" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="83" t="s">
+      <c r="K6" s="97"/>
+      <c r="L6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="83" t="s">
+      <c r="M6" s="97"/>
+      <c r="N6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="84"/>
-      <c r="P6" s="83" t="s">
+      <c r="O6" s="97"/>
+      <c r="P6" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="83" t="s">
+      <c r="Q6" s="97"/>
+      <c r="R6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="84"/>
-      <c r="T6" s="83" t="s">
+      <c r="S6" s="97"/>
+      <c r="T6" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="84"/>
-      <c r="V6" s="83" t="s">
+      <c r="U6" s="97"/>
+      <c r="V6" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="84"/>
-      <c r="X6" s="83" t="s">
+      <c r="W6" s="97"/>
+      <c r="X6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="83" t="s">
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="83" t="s">
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="83" t="s">
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="83" t="s">
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="78" t="s">
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="79" t="s">
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="124" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
@@ -6787,7 +8312,7 @@
       <c r="AI7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="80"/>
+      <c r="AJ7" s="125"/>
     </row>
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
@@ -8623,10 +10148,10 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="86"/>
+      <c r="B47" s="116"/>
       <c r="C47" s="10"/>
       <c r="D47" s="19">
         <f>SUM(D8:D46)</f>
@@ -8762,91 +10287,91 @@
       </c>
     </row>
     <row r="48" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="109"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="110">
+      <c r="D48" s="94">
         <f>SUM(D47:E47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="111"/>
-      <c r="F48" s="110">
+      <c r="E48" s="95"/>
+      <c r="F48" s="94">
         <f>SUM(F47:G47)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="111"/>
-      <c r="H48" s="110">
+      <c r="G48" s="95"/>
+      <c r="H48" s="94">
         <f>SUM(H47:I47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="111"/>
-      <c r="J48" s="110">
+      <c r="I48" s="95"/>
+      <c r="J48" s="94">
         <f>SUM(J47:K47)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="111"/>
-      <c r="L48" s="110">
+      <c r="K48" s="95"/>
+      <c r="L48" s="94">
         <f>SUM(L47:M47)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="111"/>
-      <c r="N48" s="110">
+      <c r="M48" s="95"/>
+      <c r="N48" s="94">
         <f>SUM(N47:O47)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="111"/>
-      <c r="P48" s="110">
+      <c r="O48" s="95"/>
+      <c r="P48" s="94">
         <f>SUM(P47:Q47)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="110">
+      <c r="Q48" s="95"/>
+      <c r="R48" s="94">
         <f>SUM(R47:S47)</f>
         <v>0</v>
       </c>
-      <c r="S48" s="111"/>
-      <c r="T48" s="110">
+      <c r="S48" s="95"/>
+      <c r="T48" s="94">
         <f>SUM(T47:U47)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="111"/>
-      <c r="V48" s="110">
+      <c r="U48" s="95"/>
+      <c r="V48" s="94">
         <f>SUM(V47:W47)</f>
         <v>0</v>
       </c>
-      <c r="W48" s="111"/>
-      <c r="X48" s="110">
+      <c r="W48" s="95"/>
+      <c r="X48" s="94">
         <f>SUM(X47:Y47)</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="111"/>
-      <c r="Z48" s="110">
+      <c r="Y48" s="95"/>
+      <c r="Z48" s="94">
         <f>SUM(Z47:AA47)</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="111"/>
-      <c r="AB48" s="110">
+      <c r="AA48" s="95"/>
+      <c r="AB48" s="94">
         <f>SUM(AB47:AC47)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="111"/>
-      <c r="AD48" s="110">
+      <c r="AC48" s="95"/>
+      <c r="AD48" s="94">
         <f>SUM(AD47:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="111"/>
-      <c r="AF48" s="110">
+      <c r="AE48" s="95"/>
+      <c r="AF48" s="94">
         <f>SUM(AF47:AG47)</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="111"/>
-      <c r="AH48" s="110">
+      <c r="AG48" s="95"/>
+      <c r="AH48" s="94">
         <f>SUM(AH47:AI47)</f>
         <v>0</v>
       </c>
-      <c r="AI48" s="111"/>
+      <c r="AI48" s="95"/>
       <c r="AJ48" s="14">
         <f>AH48</f>
         <v>0</v>
@@ -8856,11 +10381,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="53">
-    <mergeCell ref="F5:AG5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
@@ -8877,38 +10429,11 @@
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="F4:AG4"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AF48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="F5:AG5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -8921,8 +10446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9443,39 +10968,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9489,15 +11014,15 @@
       <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
       <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9541,15 +11066,15 @@
       <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:10" s="45" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9559,11 +11084,11 @@
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:10" s="49" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="47" t="s">
         <v>1</v>
       </c>
@@ -9585,37 +11110,37 @@
         <f>mortality!A8</f>
         <v>0</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="128">
         <f>mortality!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="52">
+      <c r="C12" s="129"/>
+      <c r="D12" s="78">
         <f>mortality!AH8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="78">
         <f>mortality!AI8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="53">
-        <f>D12+E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="54">
-        <f>RANK(F12,F$12:F$40,0)</f>
+      <c r="F12" s="79">
+        <f t="shared" ref="F12:F16" si="0">D12+E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="80">
+        <f t="shared" ref="G12:G16" si="1">RANK(F12,F$12:F$40,0)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="50" t="str">
-        <f>IF(F12=0,"x",F12)</f>
+      <c r="H12" s="81" t="str">
+        <f t="shared" ref="H12:H16" si="2">IF(F12=0,"x",F12)</f>
         <v>x</v>
       </c>
-      <c r="I12" s="50" t="e">
-        <f>RANK(H12,H$12:H$40,1)</f>
+      <c r="I12" s="81" t="e">
+        <f t="shared" ref="I12:I16" si="3">RANK(H12,H$12:H$40,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J12" s="54">
-        <f>IFERROR(I12,0)</f>
+      <c r="J12" s="80">
+        <f t="shared" ref="J12:J16" si="4">IFERROR(I12,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9624,37 +11149,37 @@
         <f>mortality!A9</f>
         <v>0</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="128">
         <f>mortality!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="52">
+      <c r="C13" s="129"/>
+      <c r="D13" s="78">
         <f>mortality!AH9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="78">
         <f>mortality!AI9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="53">
-        <f t="shared" ref="F13:F40" si="0">D13+E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="54">
-        <f t="shared" ref="G13:G40" si="1">RANK(F13,F$12:F$40,0)</f>
+      <c r="F13" s="79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="80">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H13" s="50" t="str">
-        <f t="shared" ref="H13:H40" si="2">IF(F13=0,"x",F13)</f>
+      <c r="H13" s="81" t="str">
+        <f t="shared" si="2"/>
         <v>x</v>
       </c>
-      <c r="I13" s="50" t="e">
-        <f t="shared" ref="I13:I40" si="3">RANK(H13,H$12:H$40,1)</f>
+      <c r="I13" s="81" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J13" s="54">
-        <f t="shared" ref="J13:J40" si="4">IFERROR(I13,0)</f>
+      <c r="J13" s="80">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9663,36 +11188,36 @@
         <f>mortality!A10</f>
         <v>0</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="128">
         <f>mortality!B10</f>
         <v>0</v>
       </c>
-      <c r="C14" s="134"/>
-      <c r="D14" s="52">
+      <c r="C14" s="129"/>
+      <c r="D14" s="78">
         <f>mortality!AH10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="78">
         <f>mortality!AI10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H14" s="50" t="str">
+      <c r="H14" s="81" t="str">
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
-      <c r="I14" s="50" t="e">
+      <c r="I14" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9702,36 +11227,36 @@
         <f>mortality!A11</f>
         <v>0</v>
       </c>
-      <c r="B15" s="133">
+      <c r="B15" s="128">
         <f>mortality!B11</f>
         <v>0</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="52">
+      <c r="C15" s="129"/>
+      <c r="D15" s="78">
         <f>mortality!AH11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="78">
         <f>mortality!AI11</f>
         <v>0</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H15" s="50" t="str">
+      <c r="H15" s="81" t="str">
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
-      <c r="I15" s="50" t="e">
+      <c r="I15" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9741,36 +11266,36 @@
         <f>mortality!A12</f>
         <v>0</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="128">
         <f>mortality!B12</f>
         <v>0</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="52">
+      <c r="C16" s="129"/>
+      <c r="D16" s="78">
         <f>mortality!AH12</f>
         <v>0</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="78">
         <f>mortality!AI12</f>
         <v>0</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="80">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="50" t="str">
+      <c r="H16" s="81" t="str">
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
-      <c r="I16" s="50" t="e">
+      <c r="I16" s="81" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9780,37 +11305,37 @@
         <f>mortality!A13</f>
         <v>0</v>
       </c>
-      <c r="B17" s="133">
+      <c r="B17" s="128">
         <f>mortality!B13</f>
         <v>0</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="52">
+      <c r="C17" s="129"/>
+      <c r="D17" s="78">
         <f>mortality!AH13</f>
         <v>0</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="78">
         <f>mortality!AI13</f>
         <v>0</v>
       </c>
       <c r="F17" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F17:F40" si="5">D17+E17</f>
         <v>0</v>
       </c>
       <c r="G17" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G17:G40" si="6">RANK(F17,F$12:F$40,0)</f>
         <v>1</v>
       </c>
       <c r="H17" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H17:H40" si="7">IF(F17=0,"x",F17)</f>
         <v>x</v>
       </c>
       <c r="I17" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I17:I40" si="8">RANK(H17,H$12:H$40,1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J17" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J17:J40" si="9">IFERROR(I17,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9819,37 +11344,37 @@
         <f>mortality!A14</f>
         <v>0</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="128">
         <f>mortality!B14</f>
         <v>0</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="52">
+      <c r="C18" s="129"/>
+      <c r="D18" s="78">
         <f>mortality!AH14</f>
         <v>0</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="78">
         <f>mortality!AI14</f>
         <v>0</v>
       </c>
       <c r="F18" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G18" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H18" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I18" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J18" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9858,37 +11383,37 @@
         <f>mortality!A15</f>
         <v>0</v>
       </c>
-      <c r="B19" s="133">
+      <c r="B19" s="128">
         <f>mortality!B15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="52">
+      <c r="C19" s="129"/>
+      <c r="D19" s="78">
         <f>mortality!AH15</f>
         <v>0</v>
       </c>
-      <c r="E19" s="52">
+      <c r="E19" s="78">
         <f>mortality!AI15</f>
         <v>0</v>
       </c>
       <c r="F19" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G19" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H19" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I19" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J19" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9897,37 +11422,37 @@
         <f>mortality!A16</f>
         <v>0</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="128">
         <f>mortality!B16</f>
         <v>0</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="52">
+      <c r="C20" s="129"/>
+      <c r="D20" s="78">
         <f>mortality!AH16</f>
         <v>0</v>
       </c>
-      <c r="E20" s="52">
+      <c r="E20" s="78">
         <f>mortality!AI16</f>
         <v>0</v>
       </c>
       <c r="F20" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G20" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H20" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I20" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J20" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9936,37 +11461,37 @@
         <f>mortality!A17</f>
         <v>0</v>
       </c>
-      <c r="B21" s="133">
+      <c r="B21" s="128">
         <f>mortality!B17</f>
         <v>0</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="52">
+      <c r="C21" s="129"/>
+      <c r="D21" s="78">
         <f>mortality!AH17</f>
         <v>0</v>
       </c>
-      <c r="E21" s="52">
+      <c r="E21" s="78">
         <f>mortality!AI17</f>
         <v>0</v>
       </c>
       <c r="F21" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G21" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H21" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I21" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J21" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9975,37 +11500,37 @@
         <f>mortality!A18</f>
         <v>0</v>
       </c>
-      <c r="B22" s="133">
+      <c r="B22" s="128">
         <f>mortality!B18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="52">
+      <c r="C22" s="129"/>
+      <c r="D22" s="78">
         <f>mortality!AH18</f>
         <v>0</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="78">
         <f>mortality!AI18</f>
         <v>0</v>
       </c>
       <c r="F22" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H22" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I22" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J22" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10014,37 +11539,37 @@
         <f>mortality!A19</f>
         <v>0</v>
       </c>
-      <c r="B23" s="133">
+      <c r="B23" s="128">
         <f>mortality!B19</f>
         <v>0</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="52">
+      <c r="C23" s="129"/>
+      <c r="D23" s="78">
         <f>mortality!AH19</f>
         <v>0</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="78">
         <f>mortality!AI19</f>
         <v>0</v>
       </c>
       <c r="F23" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G23" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H23" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I23" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J23" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10053,37 +11578,37 @@
         <f>mortality!A20</f>
         <v>0</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="128">
         <f>mortality!B20</f>
         <v>0</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="52">
+      <c r="C24" s="129"/>
+      <c r="D24" s="78">
         <f>mortality!AH20</f>
         <v>0</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="78">
         <f>mortality!AI20</f>
         <v>0</v>
       </c>
       <c r="F24" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G24" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H24" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I24" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10092,37 +11617,37 @@
         <f>mortality!A21</f>
         <v>0</v>
       </c>
-      <c r="B25" s="133">
+      <c r="B25" s="128">
         <f>mortality!B21</f>
         <v>0</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="52">
+      <c r="C25" s="129"/>
+      <c r="D25" s="78">
         <f>mortality!AH21</f>
         <v>0</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="78">
         <f>mortality!AI21</f>
         <v>0</v>
       </c>
       <c r="F25" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G25" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H25" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I25" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J25" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10131,37 +11656,37 @@
         <f>mortality!A22</f>
         <v>0</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="128">
         <f>mortality!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="52">
+      <c r="C26" s="129"/>
+      <c r="D26" s="78">
         <f>mortality!AH22</f>
         <v>0</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="78">
         <f>mortality!AI22</f>
         <v>0</v>
       </c>
       <c r="F26" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G26" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H26" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I26" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J26" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10170,37 +11695,37 @@
         <f>mortality!A23</f>
         <v>0</v>
       </c>
-      <c r="B27" s="133">
+      <c r="B27" s="128">
         <f>mortality!B23</f>
         <v>0</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="52">
+      <c r="C27" s="129"/>
+      <c r="D27" s="78">
         <f>mortality!AH23</f>
         <v>0</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="78">
         <f>mortality!AI23</f>
         <v>0</v>
       </c>
       <c r="F27" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G27" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H27" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I27" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J27" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10209,37 +11734,37 @@
         <f>mortality!A24</f>
         <v>0</v>
       </c>
-      <c r="B28" s="133">
+      <c r="B28" s="128">
         <f>mortality!B24</f>
         <v>0</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="52">
+      <c r="C28" s="129"/>
+      <c r="D28" s="78">
         <f>mortality!AH24</f>
         <v>0</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="78">
         <f>mortality!AI24</f>
         <v>0</v>
       </c>
       <c r="F28" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G28" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H28" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I28" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J28" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10248,37 +11773,37 @@
         <f>mortality!A25</f>
         <v>0</v>
       </c>
-      <c r="B29" s="133">
+      <c r="B29" s="128">
         <f>mortality!B25</f>
         <v>0</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="52">
+      <c r="C29" s="129"/>
+      <c r="D29" s="78">
         <f>mortality!AH25</f>
         <v>0</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="78">
         <f>mortality!AI25</f>
         <v>0</v>
       </c>
       <c r="F29" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G29" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H29" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I29" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10287,37 +11812,37 @@
         <f>mortality!A26</f>
         <v>0</v>
       </c>
-      <c r="B30" s="133">
+      <c r="B30" s="128">
         <f>mortality!B26</f>
         <v>0</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="52">
+      <c r="C30" s="129"/>
+      <c r="D30" s="78">
         <f>mortality!AH26</f>
         <v>0</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="78">
         <f>mortality!AI26</f>
         <v>0</v>
       </c>
       <c r="F30" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G30" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H30" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I30" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10326,37 +11851,37 @@
         <f>mortality!A27</f>
         <v>0</v>
       </c>
-      <c r="B31" s="133">
+      <c r="B31" s="128">
         <f>mortality!B27</f>
         <v>0</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="52">
+      <c r="C31" s="129"/>
+      <c r="D31" s="78">
         <f>mortality!AH27</f>
         <v>0</v>
       </c>
-      <c r="E31" s="52">
+      <c r="E31" s="78">
         <f>mortality!AI27</f>
         <v>0</v>
       </c>
       <c r="F31" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H31" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I31" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10365,37 +11890,37 @@
         <f>mortality!A28</f>
         <v>0</v>
       </c>
-      <c r="B32" s="133">
+      <c r="B32" s="128">
         <f>mortality!B28</f>
         <v>0</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="52">
+      <c r="C32" s="129"/>
+      <c r="D32" s="78">
         <f>mortality!AH28</f>
         <v>0</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E32" s="78">
         <f>mortality!AI28</f>
         <v>0</v>
       </c>
       <c r="F32" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H32" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I32" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10404,37 +11929,37 @@
         <f>mortality!A29</f>
         <v>0</v>
       </c>
-      <c r="B33" s="133">
+      <c r="B33" s="128">
         <f>mortality!B29</f>
         <v>0</v>
       </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="52">
+      <c r="C33" s="129"/>
+      <c r="D33" s="78">
         <f>mortality!AH29</f>
         <v>0</v>
       </c>
-      <c r="E33" s="52">
+      <c r="E33" s="78">
         <f>mortality!AI29</f>
         <v>0</v>
       </c>
       <c r="F33" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H33" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I33" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10443,37 +11968,37 @@
         <f>mortality!A30</f>
         <v>0</v>
       </c>
-      <c r="B34" s="133">
+      <c r="B34" s="128">
         <f>mortality!B30</f>
         <v>0</v>
       </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="52">
+      <c r="C34" s="129"/>
+      <c r="D34" s="78">
         <f>mortality!AH30</f>
         <v>0</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E34" s="78">
         <f>mortality!AI30</f>
         <v>0</v>
       </c>
       <c r="F34" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G34" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H34" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I34" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J34" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10482,37 +12007,37 @@
         <f>mortality!A31</f>
         <v>0</v>
       </c>
-      <c r="B35" s="133">
+      <c r="B35" s="128">
         <f>mortality!B31</f>
         <v>0</v>
       </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="52">
+      <c r="C35" s="129"/>
+      <c r="D35" s="78">
         <f>mortality!AH31</f>
         <v>0</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="78">
         <f>mortality!AI31</f>
         <v>0</v>
       </c>
       <c r="F35" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G35" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H35" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I35" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J35" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10521,37 +12046,37 @@
         <f>mortality!A32</f>
         <v>0</v>
       </c>
-      <c r="B36" s="133">
+      <c r="B36" s="128">
         <f>mortality!B32</f>
         <v>0</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="52">
+      <c r="C36" s="129"/>
+      <c r="D36" s="78">
         <f>mortality!AH32</f>
         <v>0</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E36" s="78">
         <f>mortality!AI32</f>
         <v>0</v>
       </c>
       <c r="F36" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G36" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H36" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I36" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J36" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10560,37 +12085,37 @@
         <f>mortality!A33</f>
         <v>0</v>
       </c>
-      <c r="B37" s="133">
+      <c r="B37" s="128">
         <f>mortality!B33</f>
         <v>0</v>
       </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="52">
+      <c r="C37" s="129"/>
+      <c r="D37" s="78">
         <f>mortality!AH33</f>
         <v>0</v>
       </c>
-      <c r="E37" s="52">
+      <c r="E37" s="78">
         <f>mortality!AI33</f>
         <v>0</v>
       </c>
       <c r="F37" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G37" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H37" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I37" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J37" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10599,37 +12124,37 @@
         <f>mortality!A34</f>
         <v>0</v>
       </c>
-      <c r="B38" s="133">
+      <c r="B38" s="128">
         <f>mortality!B34</f>
         <v>0</v>
       </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="52">
+      <c r="C38" s="129"/>
+      <c r="D38" s="78">
         <f>mortality!AH34</f>
         <v>0</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="78">
         <f>mortality!AI34</f>
         <v>0</v>
       </c>
       <c r="F38" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G38" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H38" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I38" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J38" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10638,37 +12163,37 @@
         <f>mortality!A35</f>
         <v>0</v>
       </c>
-      <c r="B39" s="133">
+      <c r="B39" s="128">
         <f>mortality!B35</f>
         <v>0</v>
       </c>
-      <c r="C39" s="134"/>
-      <c r="D39" s="52">
+      <c r="C39" s="129"/>
+      <c r="D39" s="78">
         <f>mortality!AH35</f>
         <v>0</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="78">
         <f>mortality!AI35</f>
         <v>0</v>
       </c>
       <c r="F39" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H39" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I39" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J39" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10677,56 +12202,56 @@
         <f>mortality!A36</f>
         <v>0</v>
       </c>
-      <c r="B40" s="133">
+      <c r="B40" s="128">
         <f>mortality!B36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="134"/>
-      <c r="D40" s="52">
+      <c r="C40" s="129"/>
+      <c r="D40" s="78">
         <f>mortality!AH36</f>
         <v>0</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="78">
         <f>mortality!AI36</f>
         <v>0</v>
       </c>
       <c r="F40" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G40" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H40" s="50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>x</v>
       </c>
       <c r="I40" s="50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J40" s="54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
-      <c r="B41" s="124" t="s">
+      <c r="B41" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="125"/>
+      <c r="C41" s="131"/>
       <c r="D41" s="47">
         <f>SUM(D12:D40)</f>
         <v>0</v>
       </c>
       <c r="E41" s="47">
-        <f t="shared" ref="E41:F41" si="5">SUM(E12:E40)</f>
+        <f t="shared" ref="E41:F41" si="10">SUM(E12:E40)</f>
         <v>0</v>
       </c>
       <c r="F41" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G41" s="55"/>
@@ -10735,32 +12260,6 @@
     <row r="42" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -10771,9 +12270,71 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.65" right="0.65" top="0.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I6" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/admin/templates/MORBIDITY-MORTALITY-temp.xlsx
+++ b/admin/templates/MORBIDITY-MORTALITY-temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="1980" windowHeight="7995" tabRatio="910"/>
+    <workbookView xWindow="-15" yWindow="105" windowWidth="1980" windowHeight="7995" tabRatio="910" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="morbidity" sheetId="50" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Barangay of</t>
   </si>
   <si>
-    <t>MUNICIPALITY OF HERMOSA</t>
-  </si>
-  <si>
     <t>TOTAL POPULATION:</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>MORTALITY</t>
+  </si>
+  <si>
+    <t>MUNICIPALITY OF BALANGA</t>
   </si>
 </sst>
 </file>
@@ -1421,6 +1421,129 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1436,127 +1559,10 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1586,10 +1592,136 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,138 +1729,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2213,8 +2213,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2268,46 +2268,46 @@
       <c r="F1" s="87"/>
       <c r="G1" s="88"/>
       <c r="H1" s="87"/>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
       <c r="Q1" s="89"/>
       <c r="R1" s="87" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="88"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="152" t="s">
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+      <c r="W1" s="151"/>
+      <c r="X1" s="151"/>
+      <c r="Y1" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="152"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
       <c r="AB1" s="90" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="161"/>
-      <c r="AH1" s="149" t="s">
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="151"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="154"/>
     </row>
     <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="93"/>
@@ -2320,45 +2320,45 @@
       <c r="F2" s="91"/>
       <c r="G2" s="97"/>
       <c r="H2" s="91"/>
-      <c r="I2" s="136" t="s">
+      <c r="I2" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
       <c r="Q2" s="98"/>
       <c r="R2" s="91" t="s">
         <v>6</v>
       </c>
       <c r="S2" s="97"/>
-      <c r="T2" s="147" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
+      <c r="T2" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="150"/>
+      <c r="V2" s="150"/>
+      <c r="W2" s="150"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
       <c r="AC2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="157"/>
-      <c r="AH2" s="153" t="s">
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="155"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="158"/>
     </row>
     <row r="3" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="93"/>
@@ -2369,44 +2369,44 @@
       <c r="F3" s="91"/>
       <c r="G3" s="97"/>
       <c r="H3" s="91"/>
-      <c r="I3" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
+      <c r="I3" s="177" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
       <c r="Q3" s="98"/>
       <c r="R3" s="91" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="97"/>
-      <c r="T3" s="147" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="147"/>
-      <c r="V3" s="147"/>
-      <c r="W3" s="147"/>
-      <c r="X3" s="147"/>
-      <c r="Y3" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
+      <c r="T3" s="150" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="155" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="155"/>
       <c r="AB3" s="100"/>
       <c r="AC3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="158"/>
-      <c r="AE3" s="158"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="153"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="155"/>
+      <c r="AD3" s="161"/>
+      <c r="AE3" s="161"/>
+      <c r="AF3" s="161"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="158"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
@@ -2414,41 +2414,41 @@
       <c r="C4" s="101"/>
       <c r="D4" s="102"/>
       <c r="E4" s="103"/>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="173"/>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="173"/>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="174"/>
-      <c r="AH4" s="166" t="s">
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="167"/>
-      <c r="AJ4" s="168"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="134"/>
     </row>
     <row r="5" spans="1:36" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104"/>
@@ -2456,119 +2456,119 @@
       <c r="C5" s="106"/>
       <c r="D5" s="107"/>
       <c r="E5" s="108"/>
-      <c r="F5" s="175" t="s">
+      <c r="F5" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="176"/>
-      <c r="T5" s="176"/>
-      <c r="U5" s="176"/>
-      <c r="V5" s="176"/>
-      <c r="W5" s="176"/>
-      <c r="X5" s="176"/>
-      <c r="Y5" s="176"/>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="176"/>
-      <c r="AB5" s="176"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="177"/>
-      <c r="AH5" s="169"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="171"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="142"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
+      <c r="AF5" s="142"/>
+      <c r="AG5" s="143"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="137"/>
     </row>
     <row r="6" spans="1:36" s="110" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="142"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="137" t="s">
+      <c r="E6" s="172"/>
+      <c r="F6" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="137" t="s">
+      <c r="G6" s="147"/>
+      <c r="H6" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="138"/>
-      <c r="J6" s="137" t="s">
+      <c r="I6" s="147"/>
+      <c r="J6" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="138"/>
-      <c r="L6" s="137" t="s">
+      <c r="K6" s="147"/>
+      <c r="L6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="138"/>
-      <c r="N6" s="137" t="s">
+      <c r="M6" s="147"/>
+      <c r="N6" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="137" t="s">
+      <c r="O6" s="147"/>
+      <c r="P6" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="137" t="s">
+      <c r="Q6" s="147"/>
+      <c r="R6" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="138"/>
-      <c r="T6" s="137" t="s">
+      <c r="S6" s="147"/>
+      <c r="T6" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="138"/>
-      <c r="V6" s="137" t="s">
+      <c r="U6" s="147"/>
+      <c r="V6" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="138"/>
-      <c r="X6" s="137" t="s">
+      <c r="W6" s="147"/>
+      <c r="X6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="138"/>
-      <c r="Z6" s="137" t="s">
+      <c r="Y6" s="147"/>
+      <c r="Z6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="137" t="s">
+      <c r="AA6" s="147"/>
+      <c r="AB6" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="AC6" s="138"/>
-      <c r="AD6" s="137" t="s">
+      <c r="AC6" s="147"/>
+      <c r="AD6" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="138"/>
-      <c r="AF6" s="137" t="s">
+      <c r="AE6" s="147"/>
+      <c r="AF6" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="AG6" s="138"/>
-      <c r="AH6" s="132" t="s">
+      <c r="AG6" s="147"/>
+      <c r="AH6" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="AI6" s="132"/>
-      <c r="AJ6" s="133" t="s">
+      <c r="AI6" s="173"/>
+      <c r="AJ6" s="174" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="114" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="143"/>
-      <c r="B7" s="144"/>
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="111" t="s">
         <v>30</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="AI7" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="134"/>
+      <c r="AJ7" s="175"/>
     </row>
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="115"/>
@@ -4504,10 +4504,10 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="139" t="s">
+      <c r="A47" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="140"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="124"/>
       <c r="D47" s="125">
         <f>SUM(D8:D46)</f>
@@ -4643,91 +4643,91 @@
       </c>
     </row>
     <row r="48" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="162" t="s">
+      <c r="A48" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="163"/>
+      <c r="B48" s="149"/>
       <c r="C48" s="127"/>
-      <c r="D48" s="164">
+      <c r="D48" s="144">
         <f>SUM(D47:E47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="165"/>
-      <c r="F48" s="164">
+      <c r="E48" s="145"/>
+      <c r="F48" s="144">
         <f>SUM(F47:G47)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="165"/>
-      <c r="H48" s="164">
+      <c r="G48" s="145"/>
+      <c r="H48" s="144">
         <f>SUM(H47:I47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="165"/>
-      <c r="J48" s="164">
+      <c r="I48" s="145"/>
+      <c r="J48" s="144">
         <f>SUM(J47:K47)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="165"/>
-      <c r="L48" s="164">
+      <c r="K48" s="145"/>
+      <c r="L48" s="144">
         <f>SUM(L47:M47)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="165"/>
-      <c r="N48" s="164">
+      <c r="M48" s="145"/>
+      <c r="N48" s="144">
         <f>SUM(N47:O47)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="165"/>
-      <c r="P48" s="164">
+      <c r="O48" s="145"/>
+      <c r="P48" s="144">
         <f>SUM(P47:Q47)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="165"/>
-      <c r="R48" s="164">
+      <c r="Q48" s="145"/>
+      <c r="R48" s="144">
         <f>SUM(R47:S47)</f>
         <v>0</v>
       </c>
-      <c r="S48" s="165"/>
-      <c r="T48" s="164">
+      <c r="S48" s="145"/>
+      <c r="T48" s="144">
         <f>SUM(T47:U47)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="165"/>
-      <c r="V48" s="164">
+      <c r="U48" s="145"/>
+      <c r="V48" s="144">
         <f>SUM(V47:W47)</f>
         <v>0</v>
       </c>
-      <c r="W48" s="165"/>
-      <c r="X48" s="164">
+      <c r="W48" s="145"/>
+      <c r="X48" s="144">
         <f>SUM(X47:Y47)</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="165"/>
-      <c r="Z48" s="164">
+      <c r="Y48" s="145"/>
+      <c r="Z48" s="144">
         <f>SUM(Z47:AA47)</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="165"/>
-      <c r="AB48" s="164">
+      <c r="AA48" s="145"/>
+      <c r="AB48" s="144">
         <f>SUM(AB47:AC47)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="165"/>
-      <c r="AD48" s="164">
+      <c r="AC48" s="145"/>
+      <c r="AD48" s="144">
         <f>SUM(AD47:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="165"/>
-      <c r="AF48" s="164">
+      <c r="AE48" s="145"/>
+      <c r="AF48" s="144">
         <f>SUM(AF47:AG47)</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="165"/>
-      <c r="AH48" s="164">
+      <c r="AG48" s="145"/>
+      <c r="AH48" s="144">
         <f>SUM(AH47:AI47)</f>
         <v>0</v>
       </c>
-      <c r="AI48" s="165"/>
+      <c r="AI48" s="145"/>
       <c r="AJ48" s="128">
         <f>AH48</f>
         <v>0</v>
@@ -4737,6 +4737,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="53">
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
     <mergeCell ref="AH4:AJ5"/>
     <mergeCell ref="F4:AG4"/>
     <mergeCell ref="F5:AG5"/>
@@ -4753,43 +4790,6 @@
     <mergeCell ref="T48:U48"/>
     <mergeCell ref="V48:W48"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -4803,8 +4803,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5326,39 +5326,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="181" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
+      <c r="A3" s="183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5372,15 +5372,15 @@
       <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="182" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
+      <c r="A5" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="40">
         <v>1415</v>
@@ -5424,15 +5424,15 @@
       <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="183" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
+      <c r="A9" s="185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:10" s="45" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5442,11 +5442,11 @@
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:10" s="49" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="186"/>
+      <c r="A11" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="187"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="47" t="s">
         <v>1</v>
       </c>
@@ -5457,10 +5457,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5468,11 +5468,11 @@
         <f>morbidity!A8</f>
         <v>0</v>
       </c>
-      <c r="B12" s="187">
+      <c r="B12" s="178">
         <f>morbidity!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="188"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="52">
         <f>morbidity!AH8</f>
         <v>0</v>
@@ -5507,11 +5507,11 @@
         <f>morbidity!A9</f>
         <v>0</v>
       </c>
-      <c r="B13" s="187">
+      <c r="B13" s="178">
         <f>morbidity!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="188"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="52">
         <f>morbidity!AH9</f>
         <v>0</v>
@@ -5546,11 +5546,11 @@
         <f>morbidity!A10</f>
         <v>0</v>
       </c>
-      <c r="B14" s="187">
+      <c r="B14" s="178">
         <f>morbidity!B10</f>
         <v>0</v>
       </c>
-      <c r="C14" s="188"/>
+      <c r="C14" s="179"/>
       <c r="D14" s="52">
         <f>morbidity!AH10</f>
         <v>0</v>
@@ -5585,11 +5585,11 @@
         <f>morbidity!A11</f>
         <v>0</v>
       </c>
-      <c r="B15" s="187">
+      <c r="B15" s="178">
         <f>morbidity!B11</f>
         <v>0</v>
       </c>
-      <c r="C15" s="188"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="52">
         <f>morbidity!AH11</f>
         <v>0</v>
@@ -5624,11 +5624,11 @@
         <f>morbidity!A12</f>
         <v>0</v>
       </c>
-      <c r="B16" s="187">
+      <c r="B16" s="178">
         <f>morbidity!B12</f>
         <v>0</v>
       </c>
-      <c r="C16" s="188"/>
+      <c r="C16" s="179"/>
       <c r="D16" s="52">
         <f>morbidity!AH12</f>
         <v>0</v>
@@ -5663,11 +5663,11 @@
         <f>morbidity!A13</f>
         <v>0</v>
       </c>
-      <c r="B17" s="187">
+      <c r="B17" s="178">
         <f>morbidity!B13</f>
         <v>0</v>
       </c>
-      <c r="C17" s="188"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="52">
         <f>morbidity!AH13</f>
         <v>0</v>
@@ -5702,11 +5702,11 @@
         <f>morbidity!A14</f>
         <v>0</v>
       </c>
-      <c r="B18" s="187">
+      <c r="B18" s="178">
         <f>morbidity!B14</f>
         <v>0</v>
       </c>
-      <c r="C18" s="188"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="52">
         <f>morbidity!AH14</f>
         <v>0</v>
@@ -5741,11 +5741,11 @@
         <f>morbidity!A15</f>
         <v>0</v>
       </c>
-      <c r="B19" s="187">
+      <c r="B19" s="178">
         <f>morbidity!B15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="188"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="52">
         <f>morbidity!AH15</f>
         <v>0</v>
@@ -5780,11 +5780,11 @@
         <f>morbidity!A16</f>
         <v>0</v>
       </c>
-      <c r="B20" s="187">
+      <c r="B20" s="178">
         <f>morbidity!B16</f>
         <v>0</v>
       </c>
-      <c r="C20" s="188"/>
+      <c r="C20" s="179"/>
       <c r="D20" s="52">
         <f>morbidity!AH16</f>
         <v>0</v>
@@ -5819,11 +5819,11 @@
         <f>morbidity!A17</f>
         <v>0</v>
       </c>
-      <c r="B21" s="187">
+      <c r="B21" s="178">
         <f>morbidity!B17</f>
         <v>0</v>
       </c>
-      <c r="C21" s="188"/>
+      <c r="C21" s="179"/>
       <c r="D21" s="52">
         <f>morbidity!AH17</f>
         <v>0</v>
@@ -5858,11 +5858,11 @@
         <f>morbidity!A18</f>
         <v>0</v>
       </c>
-      <c r="B22" s="187">
+      <c r="B22" s="178">
         <f>morbidity!B18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="188"/>
+      <c r="C22" s="179"/>
       <c r="D22" s="52">
         <f>morbidity!AH18</f>
         <v>0</v>
@@ -5897,11 +5897,11 @@
         <f>morbidity!A19</f>
         <v>0</v>
       </c>
-      <c r="B23" s="187">
+      <c r="B23" s="178">
         <f>morbidity!B19</f>
         <v>0</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="179"/>
       <c r="D23" s="52">
         <f>morbidity!AH19</f>
         <v>0</v>
@@ -5936,11 +5936,11 @@
         <f>morbidity!A20</f>
         <v>0</v>
       </c>
-      <c r="B24" s="187">
+      <c r="B24" s="178">
         <f>morbidity!B20</f>
         <v>0</v>
       </c>
-      <c r="C24" s="188"/>
+      <c r="C24" s="179"/>
       <c r="D24" s="52">
         <f>morbidity!AH20</f>
         <v>0</v>
@@ -5975,11 +5975,11 @@
         <f>morbidity!A21</f>
         <v>0</v>
       </c>
-      <c r="B25" s="187">
+      <c r="B25" s="178">
         <f>morbidity!B21</f>
         <v>0</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="52">
         <f>morbidity!AH21</f>
         <v>0</v>
@@ -6014,11 +6014,11 @@
         <f>morbidity!A22</f>
         <v>0</v>
       </c>
-      <c r="B26" s="187">
+      <c r="B26" s="178">
         <f>morbidity!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="188"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="52">
         <f>morbidity!AH22</f>
         <v>0</v>
@@ -6053,11 +6053,11 @@
         <f>morbidity!A23</f>
         <v>0</v>
       </c>
-      <c r="B27" s="187">
+      <c r="B27" s="178">
         <f>morbidity!B23</f>
         <v>0</v>
       </c>
-      <c r="C27" s="188"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="52">
         <f>morbidity!AH23</f>
         <v>0</v>
@@ -6092,11 +6092,11 @@
         <f>morbidity!A24</f>
         <v>0</v>
       </c>
-      <c r="B28" s="187">
+      <c r="B28" s="178">
         <f>morbidity!B24</f>
         <v>0</v>
       </c>
-      <c r="C28" s="188"/>
+      <c r="C28" s="179"/>
       <c r="D28" s="52">
         <f>morbidity!AH24</f>
         <v>0</v>
@@ -6131,11 +6131,11 @@
         <f>morbidity!A25</f>
         <v>0</v>
       </c>
-      <c r="B29" s="187">
+      <c r="B29" s="178">
         <f>morbidity!B25</f>
         <v>0</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="179"/>
       <c r="D29" s="52">
         <f>morbidity!AH25</f>
         <v>0</v>
@@ -6170,11 +6170,11 @@
         <f>morbidity!A26</f>
         <v>0</v>
       </c>
-      <c r="B30" s="187">
+      <c r="B30" s="178">
         <f>morbidity!B26</f>
         <v>0</v>
       </c>
-      <c r="C30" s="188"/>
+      <c r="C30" s="179"/>
       <c r="D30" s="52">
         <f>morbidity!AH26</f>
         <v>0</v>
@@ -6209,11 +6209,11 @@
         <f>morbidity!A27</f>
         <v>0</v>
       </c>
-      <c r="B31" s="187">
+      <c r="B31" s="178">
         <f>morbidity!B27</f>
         <v>0</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="179"/>
       <c r="D31" s="52">
         <f>morbidity!AH27</f>
         <v>0</v>
@@ -6248,11 +6248,11 @@
         <f>morbidity!A28</f>
         <v>0</v>
       </c>
-      <c r="B32" s="187">
+      <c r="B32" s="178">
         <f>morbidity!B28</f>
         <v>0</v>
       </c>
-      <c r="C32" s="188"/>
+      <c r="C32" s="179"/>
       <c r="D32" s="52">
         <f>morbidity!AH28</f>
         <v>0</v>
@@ -6287,11 +6287,11 @@
         <f>morbidity!A29</f>
         <v>0</v>
       </c>
-      <c r="B33" s="187">
+      <c r="B33" s="178">
         <f>morbidity!B29</f>
         <v>0</v>
       </c>
-      <c r="C33" s="188"/>
+      <c r="C33" s="179"/>
       <c r="D33" s="52">
         <f>morbidity!AH29</f>
         <v>0</v>
@@ -6326,11 +6326,11 @@
         <f>morbidity!A30</f>
         <v>0</v>
       </c>
-      <c r="B34" s="187">
+      <c r="B34" s="178">
         <f>morbidity!B30</f>
         <v>0</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="179"/>
       <c r="D34" s="52">
         <f>morbidity!AH30</f>
         <v>0</v>
@@ -6365,11 +6365,11 @@
         <f>morbidity!A31</f>
         <v>0</v>
       </c>
-      <c r="B35" s="187">
+      <c r="B35" s="178">
         <f>morbidity!B31</f>
         <v>0</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="52">
         <f>morbidity!AH31</f>
         <v>0</v>
@@ -6404,11 +6404,11 @@
         <f>morbidity!A32</f>
         <v>0</v>
       </c>
-      <c r="B36" s="187">
+      <c r="B36" s="178">
         <f>morbidity!B32</f>
         <v>0</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="52">
         <f>morbidity!AH32</f>
         <v>0</v>
@@ -6443,11 +6443,11 @@
         <f>morbidity!A33</f>
         <v>0</v>
       </c>
-      <c r="B37" s="187">
+      <c r="B37" s="178">
         <f>morbidity!B33</f>
         <v>0</v>
       </c>
-      <c r="C37" s="188"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="52">
         <f>morbidity!AH33</f>
         <v>0</v>
@@ -6482,11 +6482,11 @@
         <f>morbidity!A34</f>
         <v>0</v>
       </c>
-      <c r="B38" s="187">
+      <c r="B38" s="178">
         <f>morbidity!B34</f>
         <v>0</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="179"/>
       <c r="D38" s="52">
         <f>morbidity!AH34</f>
         <v>0</v>
@@ -6521,11 +6521,11 @@
         <f>morbidity!A35</f>
         <v>0</v>
       </c>
-      <c r="B39" s="187">
+      <c r="B39" s="178">
         <f>morbidity!B35</f>
         <v>0</v>
       </c>
-      <c r="C39" s="188"/>
+      <c r="C39" s="179"/>
       <c r="D39" s="52">
         <f>morbidity!AH35</f>
         <v>0</v>
@@ -6560,11 +6560,11 @@
         <f>morbidity!A36</f>
         <v>0</v>
       </c>
-      <c r="B40" s="187">
+      <c r="B40" s="178">
         <f>morbidity!B36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="188"/>
+      <c r="C40" s="179"/>
       <c r="D40" s="52">
         <f>morbidity!AH36</f>
         <v>0</v>
@@ -6596,10 +6596,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
-      <c r="B41" s="178" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="179"/>
+      <c r="B41" s="180" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="181"/>
       <c r="D41" s="47">
         <f>SUM(D12:D40)</f>
         <v>0</v>
@@ -6618,26 +6618,6 @@
     <row r="42" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -6654,6 +6634,26 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.65" right="0.65" top="0.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6721,46 +6721,46 @@
       <c r="F1" s="15"/>
       <c r="G1" s="23"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="195" t="s">
+      <c r="I1" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="23"/>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="202" t="s">
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="219" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
       <c r="AB1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="AC1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="210"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="211"/>
-      <c r="AH1" s="197" t="s">
+      <c r="AD1" s="227"/>
+      <c r="AE1" s="227"/>
+      <c r="AF1" s="227"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="198"/>
-      <c r="AJ1" s="199"/>
+      <c r="AI1" s="215"/>
+      <c r="AJ1" s="216"/>
     </row>
     <row r="2" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="63"/>
@@ -6773,45 +6773,45 @@
       <c r="F2" s="16"/>
       <c r="G2" s="24"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="200" t="s">
+      <c r="I2" s="217" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="217"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="217"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S2" s="24"/>
-      <c r="T2" s="201" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="201"/>
-      <c r="V2" s="201"/>
-      <c r="W2" s="201"/>
-      <c r="X2" s="201"/>
-      <c r="Y2" s="202" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="202"/>
+      <c r="T2" s="218" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="218"/>
+      <c r="V2" s="218"/>
+      <c r="W2" s="218"/>
+      <c r="X2" s="218"/>
+      <c r="Y2" s="219" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="219"/>
       <c r="AC2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207"/>
-      <c r="AH2" s="203" t="s">
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+      <c r="AF2" s="223"/>
+      <c r="AG2" s="224"/>
+      <c r="AH2" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="204"/>
-      <c r="AJ2" s="205"/>
+      <c r="AI2" s="221"/>
+      <c r="AJ2" s="222"/>
     </row>
     <row r="3" spans="1:36" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
@@ -6822,44 +6822,44 @@
       <c r="F3" s="16"/>
       <c r="G3" s="24"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="200" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
+      <c r="I3" s="217" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="217"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="217"/>
       <c r="Q3" s="29"/>
       <c r="R3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="S3" s="24"/>
-      <c r="T3" s="201" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="201"/>
-      <c r="V3" s="201"/>
-      <c r="W3" s="201"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="202" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="202"/>
-      <c r="AA3" s="202"/>
+      <c r="T3" s="218" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="218"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="219" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="219"/>
+      <c r="AA3" s="219"/>
       <c r="AB3" s="21"/>
       <c r="AC3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="208"/>
-      <c r="AE3" s="208"/>
-      <c r="AF3" s="208"/>
-      <c r="AG3" s="209"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="204"/>
-      <c r="AJ3" s="205"/>
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="225"/>
+      <c r="AG3" s="226"/>
+      <c r="AH3" s="220"/>
+      <c r="AI3" s="221"/>
+      <c r="AJ3" s="222"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
@@ -6867,41 +6867,41 @@
       <c r="C4" s="69"/>
       <c r="D4" s="65"/>
       <c r="E4" s="70"/>
-      <c r="F4" s="229" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="230"/>
-      <c r="O4" s="230"/>
-      <c r="P4" s="230"/>
-      <c r="Q4" s="230"/>
-      <c r="R4" s="230"/>
-      <c r="S4" s="230"/>
-      <c r="T4" s="230"/>
-      <c r="U4" s="230"/>
-      <c r="V4" s="230"/>
-      <c r="W4" s="230"/>
-      <c r="X4" s="230"/>
-      <c r="Y4" s="230"/>
-      <c r="Z4" s="230"/>
-      <c r="AA4" s="230"/>
-      <c r="AB4" s="230"/>
-      <c r="AC4" s="230"/>
-      <c r="AD4" s="230"/>
-      <c r="AE4" s="230"/>
-      <c r="AF4" s="230"/>
-      <c r="AG4" s="231"/>
-      <c r="AH4" s="218" t="s">
+      <c r="F4" s="209" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="210"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="210"/>
+      <c r="N4" s="210"/>
+      <c r="O4" s="210"/>
+      <c r="P4" s="210"/>
+      <c r="Q4" s="210"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="210"/>
+      <c r="AE4" s="210"/>
+      <c r="AF4" s="210"/>
+      <c r="AG4" s="211"/>
+      <c r="AH4" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="AI4" s="219"/>
-      <c r="AJ4" s="220"/>
+      <c r="AI4" s="199"/>
+      <c r="AJ4" s="200"/>
     </row>
     <row r="5" spans="1:36" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="64"/>
@@ -6909,119 +6909,119 @@
       <c r="C5" s="72"/>
       <c r="D5" s="73"/>
       <c r="E5" s="74"/>
-      <c r="F5" s="232" t="s">
+      <c r="F5" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233"/>
-      <c r="J5" s="233"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
-      <c r="O5" s="233"/>
-      <c r="P5" s="233"/>
-      <c r="Q5" s="233"/>
-      <c r="R5" s="233"/>
-      <c r="S5" s="233"/>
-      <c r="T5" s="233"/>
-      <c r="U5" s="233"/>
-      <c r="V5" s="233"/>
-      <c r="W5" s="233"/>
-      <c r="X5" s="233"/>
-      <c r="Y5" s="233"/>
-      <c r="Z5" s="233"/>
-      <c r="AA5" s="233"/>
-      <c r="AB5" s="233"/>
-      <c r="AC5" s="233"/>
-      <c r="AD5" s="233"/>
-      <c r="AE5" s="233"/>
-      <c r="AF5" s="233"/>
-      <c r="AG5" s="234"/>
-      <c r="AH5" s="221"/>
-      <c r="AI5" s="222"/>
-      <c r="AJ5" s="223"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
+      <c r="K5" s="190"/>
+      <c r="L5" s="190"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="190"/>
+      <c r="Q5" s="190"/>
+      <c r="R5" s="190"/>
+      <c r="S5" s="190"/>
+      <c r="T5" s="190"/>
+      <c r="U5" s="190"/>
+      <c r="V5" s="190"/>
+      <c r="W5" s="190"/>
+      <c r="X5" s="190"/>
+      <c r="Y5" s="190"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="190"/>
+      <c r="AC5" s="190"/>
+      <c r="AD5" s="190"/>
+      <c r="AE5" s="190"/>
+      <c r="AF5" s="190"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="201"/>
+      <c r="AI5" s="202"/>
+      <c r="AJ5" s="203"/>
     </row>
     <row r="6" spans="1:36" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="212" t="s">
+      <c r="A6" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="213"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="225"/>
-      <c r="F6" s="216" t="s">
+      <c r="E6" s="205"/>
+      <c r="F6" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="216" t="s">
+      <c r="G6" s="193"/>
+      <c r="H6" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="217"/>
-      <c r="J6" s="216" t="s">
+      <c r="I6" s="193"/>
+      <c r="J6" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="217"/>
-      <c r="L6" s="216" t="s">
+      <c r="K6" s="193"/>
+      <c r="L6" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="217"/>
-      <c r="N6" s="216" t="s">
+      <c r="M6" s="193"/>
+      <c r="N6" s="192" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="217"/>
-      <c r="P6" s="216" t="s">
+      <c r="O6" s="193"/>
+      <c r="P6" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="216" t="s">
+      <c r="Q6" s="193"/>
+      <c r="R6" s="192" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="217"/>
-      <c r="T6" s="216" t="s">
+      <c r="S6" s="193"/>
+      <c r="T6" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="217"/>
-      <c r="V6" s="216" t="s">
+      <c r="U6" s="193"/>
+      <c r="V6" s="192" t="s">
         <v>23</v>
       </c>
-      <c r="W6" s="217"/>
-      <c r="X6" s="216" t="s">
+      <c r="W6" s="193"/>
+      <c r="X6" s="192" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="217"/>
-      <c r="Z6" s="216" t="s">
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="217"/>
-      <c r="AB6" s="216" t="s">
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="AC6" s="217"/>
-      <c r="AD6" s="216" t="s">
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="AE6" s="217"/>
-      <c r="AF6" s="216" t="s">
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="192" t="s">
         <v>28</v>
       </c>
-      <c r="AG6" s="217"/>
-      <c r="AH6" s="226" t="s">
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="AI6" s="226"/>
-      <c r="AJ6" s="227" t="s">
+      <c r="AI6" s="206"/>
+      <c r="AJ6" s="207" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
+      <c r="A7" s="196"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="AI7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AJ7" s="228"/>
+      <c r="AJ7" s="208"/>
     </row>
     <row r="8" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="57"/>
@@ -8957,10 +8957,10 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="191" t="s">
+      <c r="A47" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="192"/>
+      <c r="B47" s="230"/>
       <c r="C47" s="10"/>
       <c r="D47" s="19">
         <f>SUM(D8:D46)</f>
@@ -9096,91 +9096,91 @@
       </c>
     </row>
     <row r="48" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="193" t="s">
+      <c r="A48" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="194"/>
+      <c r="B48" s="232"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="189">
+      <c r="D48" s="233">
         <f>SUM(D47:E47)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="190"/>
-      <c r="F48" s="189">
+      <c r="E48" s="234"/>
+      <c r="F48" s="233">
         <f>SUM(F47:G47)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="190"/>
-      <c r="H48" s="189">
+      <c r="G48" s="234"/>
+      <c r="H48" s="233">
         <f>SUM(H47:I47)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="190"/>
-      <c r="J48" s="189">
+      <c r="I48" s="234"/>
+      <c r="J48" s="233">
         <f>SUM(J47:K47)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="190"/>
-      <c r="L48" s="189">
+      <c r="K48" s="234"/>
+      <c r="L48" s="233">
         <f>SUM(L47:M47)</f>
         <v>0</v>
       </c>
-      <c r="M48" s="190"/>
-      <c r="N48" s="189">
+      <c r="M48" s="234"/>
+      <c r="N48" s="233">
         <f>SUM(N47:O47)</f>
         <v>0</v>
       </c>
-      <c r="O48" s="190"/>
-      <c r="P48" s="189">
+      <c r="O48" s="234"/>
+      <c r="P48" s="233">
         <f>SUM(P47:Q47)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="190"/>
-      <c r="R48" s="189">
+      <c r="Q48" s="234"/>
+      <c r="R48" s="233">
         <f>SUM(R47:S47)</f>
         <v>0</v>
       </c>
-      <c r="S48" s="190"/>
-      <c r="T48" s="189">
+      <c r="S48" s="234"/>
+      <c r="T48" s="233">
         <f>SUM(T47:U47)</f>
         <v>0</v>
       </c>
-      <c r="U48" s="190"/>
-      <c r="V48" s="189">
+      <c r="U48" s="234"/>
+      <c r="V48" s="233">
         <f>SUM(V47:W47)</f>
         <v>0</v>
       </c>
-      <c r="W48" s="190"/>
-      <c r="X48" s="189">
+      <c r="W48" s="234"/>
+      <c r="X48" s="233">
         <f>SUM(X47:Y47)</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="190"/>
-      <c r="Z48" s="189">
+      <c r="Y48" s="234"/>
+      <c r="Z48" s="233">
         <f>SUM(Z47:AA47)</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="190"/>
-      <c r="AB48" s="189">
+      <c r="AA48" s="234"/>
+      <c r="AB48" s="233">
         <f>SUM(AB47:AC47)</f>
         <v>0</v>
       </c>
-      <c r="AC48" s="190"/>
-      <c r="AD48" s="189">
+      <c r="AC48" s="234"/>
+      <c r="AD48" s="233">
         <f>SUM(AD47:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="190"/>
-      <c r="AF48" s="189">
+      <c r="AE48" s="234"/>
+      <c r="AF48" s="233">
         <f>SUM(AF47:AG47)</f>
         <v>0</v>
       </c>
-      <c r="AG48" s="190"/>
-      <c r="AH48" s="189">
+      <c r="AG48" s="234"/>
+      <c r="AH48" s="233">
         <f>SUM(AH47:AI47)</f>
         <v>0</v>
       </c>
-      <c r="AI48" s="190"/>
+      <c r="AI48" s="234"/>
       <c r="AJ48" s="14">
         <f>AH48</f>
         <v>0</v>
@@ -9190,11 +9190,38 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="53">
-    <mergeCell ref="F5:AG5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AH2:AJ3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="A6:B7"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="Z6:AA6"/>
@@ -9211,38 +9238,11 @@
     <mergeCell ref="AH6:AI6"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="F4:AG4"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AH2:AJ3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AF48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="F5:AG5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.2" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
@@ -9256,8 +9256,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9778,39 +9778,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
       <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
       <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="181" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
+      <c r="A3" s="183" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
       <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9824,15 +9824,15 @@
       <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="182" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="182"/>
+      <c r="A5" s="184" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
       <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9847,7 +9847,7 @@
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="40">
         <v>1415</v>
@@ -9876,15 +9876,15 @@
       <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
+      <c r="A9" s="185" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
       <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:10" s="45" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9894,11 +9894,11 @@
       <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:10" s="49" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="185"/>
-      <c r="C11" s="186"/>
+      <c r="A11" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="187"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="47" t="s">
         <v>1</v>
       </c>
@@ -9909,10 +9909,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="50" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9920,11 +9920,11 @@
         <f>mortality!A8</f>
         <v>0</v>
       </c>
-      <c r="B12" s="187">
+      <c r="B12" s="178">
         <f>mortality!B8</f>
         <v>0</v>
       </c>
-      <c r="C12" s="188"/>
+      <c r="C12" s="179"/>
       <c r="D12" s="78">
         <f>mortality!AH8</f>
         <v>0</v>
@@ -9959,11 +9959,11 @@
         <f>mortality!A9</f>
         <v>0</v>
       </c>
-      <c r="B13" s="187">
+      <c r="B13" s="178">
         <f>mortality!B9</f>
         <v>0</v>
       </c>
-      <c r="C13" s="188"/>
+      <c r="C13" s="179"/>
       <c r="D13" s="78">
         <f>mortality!AH9</f>
         <v>0</v>
@@ -9998,11 +9998,11 @@
         <f>mortality!A10</f>
         <v>0</v>
       </c>
-      <c r="B14" s="187">
+      <c r="B14" s="178">
         <f>mortality!B10</f>
         <v>0</v>
       </c>
-      <c r="C14" s="188"/>
+      <c r="C14" s="179"/>
       <c r="D14" s="78">
         <f>mortality!AH10</f>
         <v>0</v>
@@ -10037,11 +10037,11 @@
         <f>mortality!A11</f>
         <v>0</v>
       </c>
-      <c r="B15" s="187">
+      <c r="B15" s="178">
         <f>mortality!B11</f>
         <v>0</v>
       </c>
-      <c r="C15" s="188"/>
+      <c r="C15" s="179"/>
       <c r="D15" s="78">
         <f>mortality!AH11</f>
         <v>0</v>
@@ -10076,11 +10076,11 @@
         <f>mortality!A12</f>
         <v>0</v>
       </c>
-      <c r="B16" s="187">
+      <c r="B16" s="178">
         <f>mortality!B12</f>
         <v>0</v>
       </c>
-      <c r="C16" s="188"/>
+      <c r="C16" s="179"/>
       <c r="D16" s="78">
         <f>mortality!AH12</f>
         <v>0</v>
@@ -10115,11 +10115,11 @@
         <f>mortality!A13</f>
         <v>0</v>
       </c>
-      <c r="B17" s="187">
+      <c r="B17" s="178">
         <f>mortality!B13</f>
         <v>0</v>
       </c>
-      <c r="C17" s="188"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="78">
         <f>mortality!AH13</f>
         <v>0</v>
@@ -10154,11 +10154,11 @@
         <f>mortality!A14</f>
         <v>0</v>
       </c>
-      <c r="B18" s="187">
+      <c r="B18" s="178">
         <f>mortality!B14</f>
         <v>0</v>
       </c>
-      <c r="C18" s="188"/>
+      <c r="C18" s="179"/>
       <c r="D18" s="78">
         <f>mortality!AH14</f>
         <v>0</v>
@@ -10193,11 +10193,11 @@
         <f>mortality!A15</f>
         <v>0</v>
       </c>
-      <c r="B19" s="187">
+      <c r="B19" s="178">
         <f>mortality!B15</f>
         <v>0</v>
       </c>
-      <c r="C19" s="188"/>
+      <c r="C19" s="179"/>
       <c r="D19" s="78">
         <f>mortality!AH15</f>
         <v>0</v>
@@ -10232,11 +10232,11 @@
         <f>mortality!A16</f>
         <v>0</v>
       </c>
-      <c r="B20" s="187">
+      <c r="B20" s="178">
         <f>mortality!B16</f>
         <v>0</v>
       </c>
-      <c r="C20" s="188"/>
+      <c r="C20" s="179"/>
       <c r="D20" s="78">
         <f>mortality!AH16</f>
         <v>0</v>
@@ -10271,11 +10271,11 @@
         <f>mortality!A17</f>
         <v>0</v>
       </c>
-      <c r="B21" s="187">
+      <c r="B21" s="178">
         <f>mortality!B17</f>
         <v>0</v>
       </c>
-      <c r="C21" s="188"/>
+      <c r="C21" s="179"/>
       <c r="D21" s="78">
         <f>mortality!AH17</f>
         <v>0</v>
@@ -10310,11 +10310,11 @@
         <f>mortality!A18</f>
         <v>0</v>
       </c>
-      <c r="B22" s="187">
+      <c r="B22" s="178">
         <f>mortality!B18</f>
         <v>0</v>
       </c>
-      <c r="C22" s="188"/>
+      <c r="C22" s="179"/>
       <c r="D22" s="78">
         <f>mortality!AH18</f>
         <v>0</v>
@@ -10349,11 +10349,11 @@
         <f>mortality!A19</f>
         <v>0</v>
       </c>
-      <c r="B23" s="187">
+      <c r="B23" s="178">
         <f>mortality!B19</f>
         <v>0</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="179"/>
       <c r="D23" s="78">
         <f>mortality!AH19</f>
         <v>0</v>
@@ -10388,11 +10388,11 @@
         <f>mortality!A20</f>
         <v>0</v>
       </c>
-      <c r="B24" s="187">
+      <c r="B24" s="178">
         <f>mortality!B20</f>
         <v>0</v>
       </c>
-      <c r="C24" s="188"/>
+      <c r="C24" s="179"/>
       <c r="D24" s="78">
         <f>mortality!AH20</f>
         <v>0</v>
@@ -10427,11 +10427,11 @@
         <f>mortality!A21</f>
         <v>0</v>
       </c>
-      <c r="B25" s="187">
+      <c r="B25" s="178">
         <f>mortality!B21</f>
         <v>0</v>
       </c>
-      <c r="C25" s="188"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="78">
         <f>mortality!AH21</f>
         <v>0</v>
@@ -10466,11 +10466,11 @@
         <f>mortality!A22</f>
         <v>0</v>
       </c>
-      <c r="B26" s="187">
+      <c r="B26" s="178">
         <f>mortality!B22</f>
         <v>0</v>
       </c>
-      <c r="C26" s="188"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="78">
         <f>mortality!AH22</f>
         <v>0</v>
@@ -10505,11 +10505,11 @@
         <f>mortality!A23</f>
         <v>0</v>
       </c>
-      <c r="B27" s="187">
+      <c r="B27" s="178">
         <f>mortality!B23</f>
         <v>0</v>
       </c>
-      <c r="C27" s="188"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="78">
         <f>mortality!AH23</f>
         <v>0</v>
@@ -10544,11 +10544,11 @@
         <f>mortality!A24</f>
         <v>0</v>
       </c>
-      <c r="B28" s="187">
+      <c r="B28" s="178">
         <f>mortality!B24</f>
         <v>0</v>
       </c>
-      <c r="C28" s="188"/>
+      <c r="C28" s="179"/>
       <c r="D28" s="78">
         <f>mortality!AH24</f>
         <v>0</v>
@@ -10583,11 +10583,11 @@
         <f>mortality!A25</f>
         <v>0</v>
       </c>
-      <c r="B29" s="187">
+      <c r="B29" s="178">
         <f>mortality!B25</f>
         <v>0</v>
       </c>
-      <c r="C29" s="188"/>
+      <c r="C29" s="179"/>
       <c r="D29" s="78">
         <f>mortality!AH25</f>
         <v>0</v>
@@ -10622,11 +10622,11 @@
         <f>mortality!A26</f>
         <v>0</v>
       </c>
-      <c r="B30" s="187">
+      <c r="B30" s="178">
         <f>mortality!B26</f>
         <v>0</v>
       </c>
-      <c r="C30" s="188"/>
+      <c r="C30" s="179"/>
       <c r="D30" s="78">
         <f>mortality!AH26</f>
         <v>0</v>
@@ -10661,11 +10661,11 @@
         <f>mortality!A27</f>
         <v>0</v>
       </c>
-      <c r="B31" s="187">
+      <c r="B31" s="178">
         <f>mortality!B27</f>
         <v>0</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="179"/>
       <c r="D31" s="78">
         <f>mortality!AH27</f>
         <v>0</v>
@@ -10700,11 +10700,11 @@
         <f>mortality!A28</f>
         <v>0</v>
       </c>
-      <c r="B32" s="187">
+      <c r="B32" s="178">
         <f>mortality!B28</f>
         <v>0</v>
       </c>
-      <c r="C32" s="188"/>
+      <c r="C32" s="179"/>
       <c r="D32" s="78">
         <f>mortality!AH28</f>
         <v>0</v>
@@ -10739,11 +10739,11 @@
         <f>mortality!A29</f>
         <v>0</v>
       </c>
-      <c r="B33" s="187">
+      <c r="B33" s="178">
         <f>mortality!B29</f>
         <v>0</v>
       </c>
-      <c r="C33" s="188"/>
+      <c r="C33" s="179"/>
       <c r="D33" s="78">
         <f>mortality!AH29</f>
         <v>0</v>
@@ -10778,11 +10778,11 @@
         <f>mortality!A30</f>
         <v>0</v>
       </c>
-      <c r="B34" s="187">
+      <c r="B34" s="178">
         <f>mortality!B30</f>
         <v>0</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="179"/>
       <c r="D34" s="78">
         <f>mortality!AH30</f>
         <v>0</v>
@@ -10817,11 +10817,11 @@
         <f>mortality!A31</f>
         <v>0</v>
       </c>
-      <c r="B35" s="187">
+      <c r="B35" s="178">
         <f>mortality!B31</f>
         <v>0</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="78">
         <f>mortality!AH31</f>
         <v>0</v>
@@ -10856,11 +10856,11 @@
         <f>mortality!A32</f>
         <v>0</v>
       </c>
-      <c r="B36" s="187">
+      <c r="B36" s="178">
         <f>mortality!B32</f>
         <v>0</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="179"/>
       <c r="D36" s="78">
         <f>mortality!AH32</f>
         <v>0</v>
@@ -10895,11 +10895,11 @@
         <f>mortality!A33</f>
         <v>0</v>
       </c>
-      <c r="B37" s="187">
+      <c r="B37" s="178">
         <f>mortality!B33</f>
         <v>0</v>
       </c>
-      <c r="C37" s="188"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="78">
         <f>mortality!AH33</f>
         <v>0</v>
@@ -10934,11 +10934,11 @@
         <f>mortality!A34</f>
         <v>0</v>
       </c>
-      <c r="B38" s="187">
+      <c r="B38" s="178">
         <f>mortality!B34</f>
         <v>0</v>
       </c>
-      <c r="C38" s="188"/>
+      <c r="C38" s="179"/>
       <c r="D38" s="78">
         <f>mortality!AH34</f>
         <v>0</v>
@@ -10973,11 +10973,11 @@
         <f>mortality!A35</f>
         <v>0</v>
       </c>
-      <c r="B39" s="187">
+      <c r="B39" s="178">
         <f>mortality!B35</f>
         <v>0</v>
       </c>
-      <c r="C39" s="188"/>
+      <c r="C39" s="179"/>
       <c r="D39" s="78">
         <f>mortality!AH35</f>
         <v>0</v>
@@ -11012,11 +11012,11 @@
         <f>mortality!A36</f>
         <v>0</v>
       </c>
-      <c r="B40" s="187">
+      <c r="B40" s="178">
         <f>mortality!B36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="188"/>
+      <c r="C40" s="179"/>
       <c r="D40" s="78">
         <f>mortality!AH36</f>
         <v>0</v>
@@ -11048,10 +11048,10 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51"/>
-      <c r="B41" s="178" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="179"/>
+      <c r="B41" s="180" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="181"/>
       <c r="D41" s="47">
         <f>SUM(D12:D40)</f>
         <v>0</v>
@@ -11070,32 +11070,6 @@
     <row r="42" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -11106,6 +11080,32 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.65" right="0.65" top="0.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="85" orientation="portrait" verticalDpi="0" r:id="rId1"/>
